--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3972456.347943521</v>
+        <v>3990831.037409641</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>185.0352281913892</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>333.18008691573</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>67.25025504144566</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>41.03250833502995</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>236.7324605541038</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>30.99636303581896</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>43.65880257115472</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6.406725926341592</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.7475582387138</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>230.1411690409422</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>25.19885044325932</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>41.14266891360413</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.964516789691</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>134.7426179953489</v>
       </c>
       <c r="Y13" t="n">
-        <v>94.16481274941263</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>203.5330926723471</v>
       </c>
       <c r="U16" t="n">
-        <v>19.75086730672055</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>205.348260209243</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>143.2925104849758</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.85031738433366</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>71.4680702745062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2606,7 +2606,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>80.34442404788946</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>174.3062600431781</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789523</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463124</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3004,19 +3004,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,19 +3241,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415164</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941877</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941891</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224538</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789601</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3952,19 +3952,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274074</v>
@@ -4031,7 +4031,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,25 +4135,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>131.3398884560879</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>100.5323776496713</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2036.885894456657</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="C2" t="n">
-        <v>1667.923377516245</v>
+        <v>1024.022260178525</v>
       </c>
       <c r="D2" t="n">
-        <v>1667.923377516245</v>
+        <v>665.7565615717742</v>
       </c>
       <c r="E2" t="n">
-        <v>1282.135124918001</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>871.1492201283932</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X2" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y2" t="n">
-        <v>2423.485734520778</v>
+        <v>1779.584617183058</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>686.6820060902423</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1251.855211652197</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2665.839633406284</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2665.839633406284</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2665.839633406284</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2665.839633406284</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2334.776746062713</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.118241157406</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y5" t="n">
-        <v>1490.978909181595</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218.1627947174723</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="C7" t="n">
-        <v>218.1627947174723</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D7" t="n">
-        <v>218.1627947174723</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>218.1627947174723</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>218.1627947174723</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>218.1627947174723</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>60.41442215000242</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610024</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610024</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.1627947174723</v>
+        <v>280.0282177315058</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1472.812633166741</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C8" t="n">
-        <v>1103.85011622633</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>1103.85011622633</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>718.0618636280853</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>711.1163628788819</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4847,7 +4847,7 @@
         <v>1859.412473230863</v>
       </c>
       <c r="Y8" t="n">
-        <v>1859.412473230863</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4893,31 +4893,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>383.841510736975</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>429.8456263007749</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>429.8456263007749</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>429.8456263007749</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027576</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>409.2948950230955</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
         <v>1701.09316900344</v>
@@ -5027,13 +5027,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5078,10 +5078,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5127,19 +5127,19 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.773754790662</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O12" t="n">
-        <v>2302.237516093321</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324574</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324574</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>192.33306393444</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5279,7 +5279,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,25 +5358,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="U16" t="n">
-        <v>944.1853708078966</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V16" t="n">
-        <v>944.1853708078966</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W16" t="n">
-        <v>654.768200770936</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>426.7786498729187</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>426.7786498729187</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5540,13 +5540,13 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121729</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>731.6365520183392</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1180.418682059887</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1180.418682059887</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1180.418682059887</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>1180.418682059887</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>952.4291311618693</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>731.6365520183392</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5777,10 +5777,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4072.250396089493</v>
+        <v>3941.006808105545</v>
       </c>
       <c r="C22" t="n">
-        <v>4072.250396089493</v>
+        <v>3772.070625177638</v>
       </c>
       <c r="D22" t="n">
-        <v>3922.133756677158</v>
+        <v>3772.070625177638</v>
       </c>
       <c r="E22" t="n">
-        <v>3774.220663094764</v>
+        <v>3772.070625177638</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596854</v>
+        <v>3772.070625177638</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>3603.895303497458</v>
       </c>
       <c r="H22" t="n">
         <v>3459.155393916675</v>
@@ -5935,25 +5935,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>4660.934562929845</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U22" t="n">
-        <v>4371.805924143403</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V22" t="n">
-        <v>4371.805924143403</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W22" t="n">
-        <v>4371.805924143403</v>
+        <v>4571.437402977332</v>
       </c>
       <c r="X22" t="n">
-        <v>4143.816373245386</v>
+        <v>4343.447852079315</v>
       </c>
       <c r="Y22" t="n">
-        <v>4072.250396089493</v>
+        <v>4122.655272935785</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5975,31 +5975,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1026.505047571597</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M24" t="n">
-        <v>1333.825180851558</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>566.6879222525852</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C25" t="n">
-        <v>397.7517393246783</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>820.5263570570736</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>820.5263570570736</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>820.5263570570736</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>748.3363870828249</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6224,7 +6224,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6239,7 +6239,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4503.139178847509</v>
+        <v>496.665036439558</v>
       </c>
       <c r="C28" t="n">
-        <v>4334.202995919602</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D28" t="n">
-        <v>4184.086356507267</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924874</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>4684.787643677749</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W28" t="n">
-        <v>4684.787643677749</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X28" t="n">
-        <v>4684.787643677749</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y28" t="n">
-        <v>4684.787643677749</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6598,22 +6598,22 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6622,10 +6622,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6634,13 +6634,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P31" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6661,7 +6661,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
         <v>772.2886129010315</v>
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,28 +6689,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>966.6932390011339</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>1296.555866665167</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,10 +6889,10 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7199,25 +7199,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7257,10 +7257,10 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
         <v>2051.878056918008</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3481.793971740468</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>3381.677879852602</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>3300.381331480307</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>3221.288328937955</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>3143.218472480086</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>3043.863241839947</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>2962.265324427932</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>2919.55082408992</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>2999.384087782174</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>3217.02006325513</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>3532.182679494604</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>3871.199993490131</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>4209.194673746023</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>4510.520222979764</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>4754.570558813792</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>4818.599560616159</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>4687.499641571752</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>4532.5343174013</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>4312.225769654899</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>4126.361372489051</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>3905.764293492131</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>3746.594833634155</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>3594.622345530666</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7406,7 +7406,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7433,7 +7433,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
@@ -7494,16 +7494,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>638.3691419079764</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103134</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,7 +7600,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
@@ -7734,13 +7734,13 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>841.863114014129</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N45" t="n">
-        <v>1646.27469227828</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>2315.738453580939</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>656.1762782006411</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="C46" t="n">
-        <v>656.1762782006411</v>
+        <v>674.8033259489735</v>
       </c>
       <c r="D46" t="n">
-        <v>506.0596387883054</v>
+        <v>524.6866865366377</v>
       </c>
       <c r="E46" t="n">
-        <v>506.0596387883054</v>
+        <v>376.7735929542446</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>229.8836454563342</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1397.368414346113</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1173.582999135619</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>1173.582999135619</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V46" t="n">
-        <v>1173.582999135619</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W46" t="n">
-        <v>884.1658290986585</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="X46" t="n">
-        <v>656.1762782006411</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="Y46" t="n">
-        <v>656.1762782006411</v>
+        <v>843.7395088768803</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8696,10 +8696,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>18.73797368291383</v>
+        <v>199.623080587109</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>283.6093329825492</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,13 +9170,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>223.6742649934478</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>392.1113620226433</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>223.6742649934478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>234.4116509503166</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10665,25 +10665,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10905,13 +10905,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>38.86002301949878</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,19 +11142,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11391,7 +11391,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>15.83804904622852</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="Y13" t="n">
-        <v>124.4198406026822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>18.01446838604213</v>
       </c>
       <c r="U16" t="n">
-        <v>266.4864850918568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>16.19930084914628</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>5.621317882560305</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>147.7343359677611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>147.1165830775886</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>86.90239705073837</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,19 +24649,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>77.83138328064987</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -26023,25 +26023,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>35.15368000728972</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26068,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>97.38843233393197</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634610.7944551752</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664823.1235065464</v>
+        <v>664823.1235065463</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176764</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176762</v>
-      </c>
-      <c r="C2" t="n">
-        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="G2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="H2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="I2" t="n">
         <v>762506.6664885324</v>
       </c>
-      <c r="H2" t="n">
-        <v>762506.6664885323</v>
-      </c>
-      <c r="I2" t="n">
-        <v>762506.6664885328</v>
-      </c>
       <c r="J2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885321</v>
       </c>
       <c r="K2" t="n">
         <v>800515.7256176769</v>
       </c>
       <c r="L2" t="n">
+        <v>800515.7256176769</v>
+      </c>
+      <c r="M2" t="n">
         <v>800515.7256176767</v>
       </c>
-      <c r="M2" t="n">
-        <v>800515.7256176771</v>
-      </c>
       <c r="N2" t="n">
-        <v>800515.725617677</v>
+        <v>800515.7256176769</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176769</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885327</v>
       </c>
     </row>
     <row r="3">
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029926</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029927</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>53757.1520316197</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="L4" t="n">
-        <v>53757.1520316197</v>
+        <v>51722.33279362279</v>
       </c>
       <c r="M4" t="n">
-        <v>53757.1520316197</v>
+        <v>51722.33279362279</v>
       </c>
       <c r="N4" t="n">
-        <v>53757.15203161969</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="O4" t="n">
-        <v>53757.1520316197</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26497,7 +26497,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49330.33014554621</v>
+        <v>-46802.00898210367</v>
       </c>
       <c r="C6" t="n">
-        <v>540637.5490689983</v>
+        <v>543165.8702324405</v>
       </c>
       <c r="D6" t="n">
-        <v>540637.5490689984</v>
+        <v>543165.8702324406</v>
       </c>
       <c r="E6" t="n">
-        <v>114020.9392726206</v>
+        <v>116055.7585106175</v>
       </c>
       <c r="F6" t="n">
-        <v>639180.9757495169</v>
+        <v>641215.7949875137</v>
       </c>
       <c r="G6" t="n">
-        <v>639180.9757495165</v>
+        <v>641215.7949875132</v>
       </c>
       <c r="H6" t="n">
-        <v>639180.9757495165</v>
+        <v>641215.7949875132</v>
       </c>
       <c r="I6" t="n">
-        <v>639180.975749517</v>
+        <v>641215.7949875136</v>
       </c>
       <c r="J6" t="n">
-        <v>462757.756556924</v>
+        <v>464792.5757949202</v>
       </c>
       <c r="K6" t="n">
-        <v>594537.9556623192</v>
+        <v>596572.7749003161</v>
       </c>
       <c r="L6" t="n">
-        <v>649043.4677660316</v>
+        <v>651078.2870040287</v>
       </c>
       <c r="M6" t="n">
-        <v>514242.452532195</v>
+        <v>516277.2717701914</v>
       </c>
       <c r="N6" t="n">
-        <v>649043.4677660319</v>
+        <v>651078.2870040287</v>
       </c>
       <c r="O6" t="n">
-        <v>649043.4677660316</v>
+        <v>651078.2870040287</v>
       </c>
       <c r="P6" t="n">
-        <v>639180.9757495167</v>
+        <v>641215.7949875137</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.090574447047682e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.090574447047682e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.090574447047682e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>196.8951418808726</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>80.604083105065</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27591,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>184.8873882823823</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>177.5521450170648</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>146.0013811093768</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.48203953899275</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>123.5880185274731</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>128.5588958659966</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>239.0366117820812</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>156.0967696151114</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>123.416622574953</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>245.1392053283736</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28330,19 +28330,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.090574447047682e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>9.090574447047682e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>9.090574447047682e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>9.090574447047682e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>9.090574447047682e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>9.090574447047682e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>9.090574447047682e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>9.090574447047682e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.090574447047682e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>9.090574447047682e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>9.090574447047682e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9.090574447047682e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>9.090574447047682e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>9.090574447047682e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.090574447047682e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35416,10 +35416,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
         <v>713.1546070951472</v>
@@ -35495,22 +35495,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>225.8313886144385</v>
+        <v>406.7164955186337</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,10 +35647,10 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221117</v>
@@ -35726,7 +35726,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35735,19 +35735,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>565.9730352236573</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,13 +35890,13 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36139,7 +36139,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
         <v>59.8253897034981</v>
@@ -36200,7 +36200,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36212,16 +36212,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>506.0379672345559</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>725.3059354206563</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507413</v>
@@ -36674,7 +36674,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36911,10 +36911,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>472.9319699494721</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37160,13 +37160,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>516.7753531914248</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37385,25 +37385,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37625,13 +37625,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>349.2844000699651</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>354.1326152325991</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>326.2624260966948</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>326.2624260966948</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415665</v>
@@ -38111,7 +38111,7 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>222.9314639777532</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>88.01303278507413</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4064206.32639573</v>
+        <v>4057189.311504018</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800627</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>159.5623709710786</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>265.3029854470109</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>38.12750508653127</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>164.6242057717103</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>348.4023247556006</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>77.72878559814615</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>26.3288200405005</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>186.2507170030312</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>317.3582100207922</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.52878397697169</v>
+        <v>26.32882004050054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>46.18719652447367</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.3289218547271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>152.8992474848847</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>46.18719652447367</v>
       </c>
     </row>
     <row r="17">
@@ -1849,22 +1849,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>112.7789654907354</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056522</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,13 +2298,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>121.6872846616454</v>
+        <v>143.3158222056522</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.5311374878192</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002185</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274765</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>17.13387053928936</v>
       </c>
       <c r="S28" t="n">
-        <v>197.0176412647631</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>93.4704690631328</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>162.5549185622207</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.4078336494461</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>115.5269768002203</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>101.1426547140132</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>250.5321632999616</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>14.97068936074829</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>106.2835578420359</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>192.6211591710424</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>37.34995075181416</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>196.636017513691</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2310.5492509541</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C2" t="n">
-        <v>1941.586734013689</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D2" t="n">
-        <v>1583.321035406938</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.532782808694</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>786.5468780190865</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>368.5830699172734</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4366,16 +4366,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="Y2" t="n">
-        <v>2697.149091018222</v>
+        <v>1745.334734821698</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4415,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261.391796148808</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>92.45561322090109</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>92.45561322090109</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>92.45561322090109</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>92.45561322090109</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>92.45561322090109</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>92.45561322090109</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>261.391796148808</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>261.391796148808</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>261.391796148808</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>261.391796148808</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>261.391796148808</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>941.2608351981287</v>
+        <v>1744.23243129246</v>
       </c>
       <c r="C5" t="n">
-        <v>941.2608351981287</v>
+        <v>1375.269914352048</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>1017.004215745297</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>631.2159631470531</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>220.2300583574456</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4582,7 +4582,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
         <v>2544.691559791253</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>2091.465765499142</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X5" t="n">
-        <v>1718.000007238062</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y5" t="n">
-        <v>1327.86067526225</v>
+        <v>2130.832271356581</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,19 +4646,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598709</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.3468541648871</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C7" t="n">
-        <v>279.3468541648871</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>80.53774953804174</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036446</v>
@@ -4734,7 +4734,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4743,34 +4743,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084172</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648871</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>631.906440948188</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>262.9439240077763</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2102.921886014929</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1750.153230744814</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1750.153230744814</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1750.153230744814</v>
+        <v>1018.50628101231</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036447</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>726.5847579670692</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="R10" t="n">
-        <v>726.5847579670692</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="S10" t="n">
-        <v>512.2963347852319</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="T10" t="n">
-        <v>512.2963347852319</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="U10" t="n">
-        <v>512.2963347852319</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="V10" t="n">
-        <v>512.2963347852319</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="W10" t="n">
-        <v>222.8791647482714</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="11">
@@ -5023,67 +5023,67 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1595.645765494011</v>
+        <v>1595.645765494012</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158045</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.9573788353326</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="C13" t="n">
-        <v>394.9573788353326</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="D13" t="n">
-        <v>394.9573788353326</v>
+        <v>291.7839189057837</v>
       </c>
       <c r="E13" t="n">
-        <v>247.0442852529395</v>
+        <v>143.8708253233906</v>
       </c>
       <c r="F13" t="n">
-        <v>247.0442852529395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.0442852529395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.156678913841</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W13" t="n">
-        <v>843.7395088768801</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X13" t="n">
-        <v>615.7499579788628</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y13" t="n">
-        <v>394.9573788353326</v>
+        <v>441.9005583181194</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5302,28 +5302,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5345,40 +5345,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>735.0407559057232</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M15" t="n">
-        <v>1503.408902298185</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.271529962218</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.7003690904323</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C16" t="n">
-        <v>562.7003690904323</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>562.7003690904323</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488384</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V16" t="n">
-        <v>898.7925182488384</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W16" t="n">
-        <v>744.3488339206721</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X16" t="n">
-        <v>744.3488339206721</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y16" t="n">
-        <v>744.3488339206721</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="17">
@@ -5491,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701563</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>816.7950850315606</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
-        <v>1124.115218311522</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
@@ -5682,7 +5682,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.055751909234</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W19" t="n">
-        <v>1050.137604948895</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="X19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,31 +5734,31 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
         <v>534.5429807341677</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141295</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1646.27469227828</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2315.73845358094</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
@@ -5919,7 +5919,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609669</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W22" t="n">
-        <v>696.5850465240062</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="X22" t="n">
-        <v>573.668597370829</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>573.668597370829</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277035</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141295</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1841.189502980822</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>692.753134944335</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247867</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247867</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>709.4512536188998</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>709.4512536188998</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>709.4512536188998</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>709.4512536188998</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.32138455061</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610198</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003448</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405203</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155959</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080554</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822533</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.217091460286</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823799</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514102</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515101</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643329</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899133</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207836</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.8545730143</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231271</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141875</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465308</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121738</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851623</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590543</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614732</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.217091460286</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126487</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571619</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766205</v>
+        <v>921.1936903636266</v>
       </c>
       <c r="M27" t="n">
-        <v>1236.836466556557</v>
+        <v>1228.513823643589</v>
       </c>
       <c r="N27" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307622</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.91651652632</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3890.044176674691</v>
+        <v>879.2482765610115</v>
       </c>
       <c r="C28" t="n">
-        <v>3721.107993746784</v>
+        <v>710.3120936331046</v>
       </c>
       <c r="D28" t="n">
-        <v>3721.107993746784</v>
+        <v>560.1954542207689</v>
       </c>
       <c r="E28" t="n">
-        <v>3721.107993746784</v>
+        <v>412.2823606383757</v>
       </c>
       <c r="F28" t="n">
-        <v>3721.107993746784</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.217091460286</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.217091460286</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.217091460286</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241961</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688078</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799374</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1481.609330619229</v>
       </c>
       <c r="S28" t="n">
-        <v>4661.846854565037</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="T28" t="n">
-        <v>4661.846854565037</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="U28" t="n">
-        <v>4372.718215778595</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V28" t="n">
-        <v>4118.033727572708</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W28" t="n">
-        <v>4118.033727572708</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X28" t="n">
-        <v>3890.044176674691</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y28" t="n">
-        <v>3890.044176674691</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643329</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899133</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207836</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6527,40 +6527,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126485</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571617</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766205</v>
+        <v>921.1936903636264</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643589</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307622</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.91651652632</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>898.50398699832</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C31" t="n">
-        <v>898.50398699832</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D31" t="n">
-        <v>748.3873475859842</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>600.4742540035911</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>453.5843065056807</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473457</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473457</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473457</v>
       </c>
       <c r="V31" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473457</v>
       </c>
       <c r="W31" t="n">
-        <v>898.50398699832</v>
+        <v>1298.996260473457</v>
       </c>
       <c r="X31" t="n">
-        <v>898.50398699832</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="Y31" t="n">
-        <v>898.50398699832</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643329</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899133</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207836</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6764,40 +6764,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126485</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571617</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.71878111552</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395483</v>
       </c>
       <c r="N33" t="n">
-        <v>1632.773754790662</v>
+        <v>1843.901542059516</v>
       </c>
       <c r="O33" t="n">
-        <v>2302.237516093321</v>
+        <v>2123.441607278214</v>
       </c>
       <c r="P33" t="n">
-        <v>2507.25999687553</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.8045051785809</v>
+        <v>213.9110074201043</v>
       </c>
       <c r="C34" t="n">
-        <v>358.8683222506741</v>
+        <v>213.9110074201043</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>213.9110074201043</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>213.9110074201043</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>213.9110074201043</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>213.9110074201043</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347411</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609691</v>
       </c>
       <c r="V34" t="n">
-        <v>1187.92115703528</v>
+        <v>731.3177283550823</v>
       </c>
       <c r="W34" t="n">
-        <v>898.5039869983193</v>
+        <v>441.9005583181217</v>
       </c>
       <c r="X34" t="n">
-        <v>898.5039869983193</v>
+        <v>213.9110074201043</v>
       </c>
       <c r="Y34" t="n">
-        <v>677.7114078547892</v>
+        <v>213.9110074201043</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,25 +6928,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6958,10 +6958,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>822.148054050878</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C37" t="n">
-        <v>822.148054050878</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D37" t="n">
-        <v>822.148054050878</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684849</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705745</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
         <v>359.1696912903951</v>
@@ -7092,7 +7092,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="U37" t="n">
-        <v>822.148054050878</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="V37" t="n">
-        <v>822.148054050878</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="W37" t="n">
-        <v>822.148054050878</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="X37" t="n">
-        <v>822.148054050878</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="Y37" t="n">
-        <v>822.148054050878</v>
+        <v>1175.95939372345</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,43 +7162,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>260.2520934878793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>260.2520934878793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>260.2520934878793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>112.3389999054862</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>112.3389999054862</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>112.3389999054862</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7402,16 +7402,16 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7429,31 +7429,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3716.629162462381</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C43" t="n">
-        <v>3609.272033329011</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4549.85945949167</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>4260.730820705228</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>4006.046332499342</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>3716.629162462381</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>3716.629162462381</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y43" t="n">
-        <v>3716.629162462381</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="44">
@@ -7651,25 +7651,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3720.806624707064</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="C46" t="n">
-        <v>3720.806624707064</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="D46" t="n">
-        <v>3570.689985294728</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="E46" t="n">
-        <v>3570.689985294728</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="F46" t="n">
-        <v>3570.689985294728</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4549.85945949167</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>4549.85945949167</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>4351.237219578851</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W46" t="n">
-        <v>4351.237219578851</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X46" t="n">
-        <v>4123.247668680834</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y46" t="n">
-        <v>3902.455089537304</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050811</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142009</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298194</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8780,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>127.6461250100639</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,13 +9011,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>202.5230052237938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119831</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>20.63789864135356</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9488,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229572</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>15.83804904622801</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928303</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>285.103135653932</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>134.4977453535099</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776703</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987297522</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>306.1147370139951</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776707</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987297522</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776705</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>29.47535963978235</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,13 +10913,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>20.63789864135481</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>412.6002929596431</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>158.8724419039331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23421,19 +23421,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>99.23385149845757</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0.584906512808999</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>133.6237508517063</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>172.3974568276211</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>173.7440328458555</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>104.0223707273918</v>
+        <v>82.393833183385</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.3008426941181</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>92.83048186450331</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9031687188401634</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>73.02309940024479</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>63.15473682681642</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.42414653249116</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731579</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.77815526959002</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>35.70518909861579</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>133.9431390067878</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>60.96326325659189</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>108.0710972711171</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>55.50162581013703</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634610.7944551754</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>634610.7944551754</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>634610.7944551754</v>
+        <v>634610.7944551755</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
+        <v>762506.6664885326</v>
+      </c>
+      <c r="F2" t="n">
+        <v>762506.6664885321</v>
+      </c>
+      <c r="G2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="H2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="I2" t="n">
+        <v>762506.6664885321</v>
+      </c>
+      <c r="J2" t="n">
+        <v>762506.666488533</v>
+      </c>
+      <c r="K2" t="n">
+        <v>762506.6664885328</v>
+      </c>
+      <c r="L2" t="n">
+        <v>762506.6664885326</v>
+      </c>
+      <c r="M2" t="n">
+        <v>762506.6664885326</v>
+      </c>
+      <c r="N2" t="n">
         <v>762506.6664885324</v>
       </c>
-      <c r="F2" t="n">
-        <v>762506.6664885326</v>
-      </c>
-      <c r="G2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="H2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="I2" t="n">
-        <v>762506.6664885322</v>
-      </c>
-      <c r="J2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="K2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="L2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>762506.6664885323</v>
-      </c>
-      <c r="N2" t="n">
-        <v>762506.6664885326</v>
-      </c>
-      <c r="O2" t="n">
-        <v>762506.6664885326</v>
       </c>
       <c r="P2" t="n">
         <v>762506.6664885326</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.510358884090614e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925941</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338361</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
+        <v>174490.7773218261</v>
+      </c>
+      <c r="D4" t="n">
         <v>174490.7773218262</v>
       </c>
-      <c r="D4" t="n">
-        <v>174490.7773218261</v>
-      </c>
       <c r="E4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29303.5455523023</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29303.5455523023</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29303.54555230198</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29303.54555230225</v>
+      </c>
+      <c r="L4" t="n">
+        <v>29303.54555230225</v>
+      </c>
+      <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="F4" t="n">
+      <c r="N4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29303.54555230229</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29303.54555230232</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29303.54555230231</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29303.54555230231</v>
-      </c>
-      <c r="L4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="M4" t="n">
-        <v>29303.54555230234</v>
-      </c>
-      <c r="N4" t="n">
-        <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26487,25 +26487,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871675</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46802.00898210355</v>
+        <v>-46802.00898210393</v>
       </c>
       <c r="C6" t="n">
-        <v>543165.8702324408</v>
+        <v>543165.8702324409</v>
       </c>
       <c r="D6" t="n">
-        <v>543165.8702324408</v>
+        <v>543165.8702324405</v>
       </c>
       <c r="E6" t="n">
-        <v>116055.7585106176</v>
+        <v>115081.1672508956</v>
       </c>
       <c r="F6" t="n">
-        <v>641215.7949875137</v>
+        <v>640241.2037277916</v>
       </c>
       <c r="G6" t="n">
-        <v>641215.7949875135</v>
+        <v>640241.2037277918</v>
       </c>
       <c r="H6" t="n">
-        <v>641215.7949875135</v>
+        <v>640241.2037277917</v>
       </c>
       <c r="I6" t="n">
-        <v>641215.7949875133</v>
+        <v>640241.2037277916</v>
       </c>
       <c r="J6" t="n">
-        <v>464792.5757949207</v>
+        <v>463817.9845351984</v>
       </c>
       <c r="K6" t="n">
-        <v>641215.7949875136</v>
+        <v>640241.2037277922</v>
       </c>
       <c r="L6" t="n">
-        <v>641215.7949875137</v>
+        <v>640241.203727792</v>
       </c>
       <c r="M6" t="n">
-        <v>506414.7797536761</v>
+        <v>505440.1884939559</v>
       </c>
       <c r="N6" t="n">
-        <v>641215.7949875136</v>
+        <v>640241.2037277918</v>
       </c>
       <c r="O6" t="n">
-        <v>641215.7949875136</v>
+        <v>640241.2037277918</v>
       </c>
       <c r="P6" t="n">
-        <v>641215.7949875137</v>
+        <v>640241.203727792</v>
       </c>
     </row>
   </sheetData>
@@ -26740,34 +26740,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253575</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-3.378322043447375e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545573</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>164.3604017932786</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>104.4281152314582</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>96.83811670580695</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>249.1599642490847</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8386439618124086</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>70.88668742006621</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>140.9809822185504</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>168.4323246176517</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>10.39404844934268</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.59396597794258</v>
+        <v>2.793929914413759</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-8.078371562165381e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31293,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,40 +31357,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31399,7 +31399,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,16 +32235,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927188</v>
@@ -32253,19 +32253,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
         <v>0.2670576580354894</v>
@@ -32311,7 +32311,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
@@ -32320,19 +32320,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710957</v>
@@ -32341,13 +32341,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32405,19 +32405,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336902</v>
@@ -32426,7 +32426,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,16 +32472,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927188</v>
@@ -32490,19 +32490,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
         <v>0.2670576580354894</v>
@@ -32548,7 +32548,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
@@ -32557,19 +32557,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710957</v>
@@ -32578,13 +32578,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32642,19 +32642,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336902</v>
@@ -32663,7 +32663,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34783,13 +34783,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34941,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>460.8406984080777</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>410.0098272511722</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>451.7807101798181</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408111</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951474</v>
@@ -35904,10 +35904,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>269.895603597378</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209233</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36053,16 +36053,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081121</v>
@@ -36141,10 +36141,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>222.9314639777528</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36290,16 +36290,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221098</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081121</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560245</v>
@@ -36451,10 +36451,10 @@
         <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>492.1965505854569</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209233</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M27" t="n">
-        <v>444.9221224039763</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091955</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349123</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O30" t="n">
-        <v>588.4784392551034</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>495.502597509196</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349123</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336954</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315253</v>
       </c>
       <c r="Q33" t="n">
-        <v>117.4883924248565</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37633,13 +37633,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>353.8324720393676</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>745.7948663576559</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>408.1301468599573</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38113,10 +38113,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4057189.311504018</v>
+        <v>4062128.574353049</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800627</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>37.62586026564896</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>265.3029854470109</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>76.71587097450809</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>164.6242057717103</v>
+        <v>110.1458031968981</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>26.3288200405005</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.60408762095435</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>186.2507170030312</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>6.283679164004356</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113172</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>46.18719652447367</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>103.4671364311172</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.18719652447367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056522</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056522</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002185</v>
+        <v>54.40320730981892</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274765</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.13387053928936</v>
+        <v>57.5645290049876</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>252.8505008312588</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>162.5549185622207</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>115.5269768002203</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>101.1426547140132</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>101.2024957585489</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>192.6211591710424</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>37.34995075181416</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1745.334734821698</v>
+        <v>979.5885935818919</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>610.6260766414803</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>252.3603780347298</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>252.3603780347298</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>245.4148772855263</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,10 +4327,10 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674651</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404537</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X2" t="n">
-        <v>1745.334734821698</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y2" t="n">
-        <v>1745.334734821698</v>
+        <v>1366.188433646014</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4415,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>279.346854164887</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>279.346854164887</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1744.23243129246</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C5" t="n">
-        <v>1375.269914352048</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D5" t="n">
-        <v>1017.004215745297</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E5" t="n">
-        <v>631.2159631470531</v>
+        <v>576.1872736775458</v>
       </c>
       <c r="F5" t="n">
-        <v>220.2300583574456</v>
+        <v>165.2013688879383</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>2130.832271356581</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761947</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482878</v>
+        <v>529.7758821321495</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359521</v>
+        <v>379.6592427198137</v>
       </c>
       <c r="E7" t="n">
-        <v>227.4276970359521</v>
+        <v>231.7461491374206</v>
       </c>
       <c r="F7" t="n">
-        <v>80.53774953804174</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>631.906440948188</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>262.9439240077763</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
         <v>74.81188663097703</v>
@@ -4810,13 +4810,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988121</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.50628101231</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4901,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -5023,37 +5023,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5062,28 +5062,28 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1595.645765494012</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1925.508393158045</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>441.9005583181194</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C13" t="n">
-        <v>441.9005583181194</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>291.7839189057837</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>143.8708253233906</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1283.328908098397</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1059.543492887903</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609669</v>
+        <v>1059.543492887903</v>
       </c>
       <c r="V13" t="n">
-        <v>731.31772835508</v>
+        <v>1059.543492887903</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181194</v>
+        <v>770.1263228509424</v>
       </c>
       <c r="X13" t="n">
-        <v>441.9005583181194</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.9005583181194</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,49 +5278,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5345,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5439,13 +5439,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>731.31772835508</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181194</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>441.9005583181194</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,13 +5530,13 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5673,16 +5673,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,28 +5691,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765193</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706325</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336719</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5743,22 +5743,22 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5910,7 +5910,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688073</v>
@@ -5919,7 +5919,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,19 +5937,19 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765193</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706325</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336719</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5968,49 +5968,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.32138455061</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610198</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003448</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405203</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155959</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080554</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822533</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823799</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514102</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515101</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.8545730143</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231271</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141875</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465308</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121738</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851623</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590543</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614732</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126487</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571619</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636266</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610115</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331046</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207689</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383757</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241961</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688078</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799374</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1481.609330619229</v>
+        <v>1440.770281663976</v>
       </c>
       <c r="S28" t="n">
-        <v>1281.689320534781</v>
+        <v>1240.850271579528</v>
       </c>
       <c r="T28" t="n">
-        <v>1281.689320534781</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="U28" t="n">
-        <v>1281.689320534781</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V28" t="n">
-        <v>1281.689320534781</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>1281.689320534781</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>1281.689320534781</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>1060.896741391251</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6527,37 +6527,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636264</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643589</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307622</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.91651652632</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>732.358329063101</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C31" t="n">
-        <v>563.4221461351941</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D31" t="n">
-        <v>413.3055067228584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473457</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473457</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473457</v>
+        <v>1019.726309053207</v>
       </c>
       <c r="V31" t="n">
-        <v>1298.996260473457</v>
+        <v>765.0418208473205</v>
       </c>
       <c r="W31" t="n">
-        <v>1298.996260473457</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X31" t="n">
-        <v>1134.799373036871</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y31" t="n">
-        <v>914.0067938933407</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155885</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6764,37 +6764,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.71878111552</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395483</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059516</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278214</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.9110074201043</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>213.9110074201043</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>213.9110074201043</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>213.9110074201043</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>213.9110074201043</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>213.9110074201043</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6858,52 +6858,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557905</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347411</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609691</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550823</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>441.9005583181217</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201043</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9110074201043</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6937,25 +6937,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.75197286698</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1396.75197286698</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1396.75197286698</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1396.75197286698</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1396.75197286698</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1396.75197286698</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>1175.95939372345</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7359,19 +7359,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028584</v>
@@ -7402,19 +7402,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.3337308726216</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>247.3337308726216</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.3337308726216</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="44">
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>820.5263570570736</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>531.109187020113</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>303.1196361220957</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050811</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298194</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>127.6461250100639</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.337678916511</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>15.83804904622903</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298008</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776741</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229572</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928303</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776703</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776707</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776705</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>99.23385149845757</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>94.45367355248609</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23658,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
-        <v>172.3974568276211</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338477</v>
+        <v>143.5176026737843</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>92.83048186450331</v>
+        <v>52.3998233988052</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>63.15473682681642</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>33.38685156731579</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>96.77815526959002</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>45.23146688802031</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>33.08849621799476</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>108.0710972711171</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551755</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176764</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176762</v>
-      </c>
       <c r="E2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="F2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="G2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="H2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="I2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="J2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="K2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="L2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="M2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="N2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="O2" t="n">
         <v>762506.6664885321</v>
       </c>
-      <c r="G2" t="n">
-        <v>762506.6664885323</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="P2" t="n">
         <v>762506.6664885322</v>
-      </c>
-      <c r="I2" t="n">
-        <v>762506.6664885321</v>
-      </c>
-      <c r="J2" t="n">
-        <v>762506.666488533</v>
-      </c>
-      <c r="K2" t="n">
-        <v>762506.6664885328</v>
-      </c>
-      <c r="L2" t="n">
-        <v>762506.6664885326</v>
-      </c>
-      <c r="M2" t="n">
-        <v>762506.6664885326</v>
-      </c>
-      <c r="N2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="O2" t="n">
-        <v>762506.6664885323</v>
-      </c>
-      <c r="P2" t="n">
-        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925941</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338361</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,34 +26420,34 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230198</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230225</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230225</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26472,40 +26472,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871675</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46802.00898210393</v>
+        <v>-46802.00898210402</v>
       </c>
       <c r="C6" t="n">
-        <v>543165.8702324409</v>
+        <v>543165.8702324405</v>
       </c>
       <c r="D6" t="n">
-        <v>543165.8702324405</v>
+        <v>543165.8702324408</v>
       </c>
       <c r="E6" t="n">
-        <v>115081.1672508956</v>
+        <v>115958.2993846452</v>
       </c>
       <c r="F6" t="n">
-        <v>640241.2037277916</v>
+        <v>641118.3358615412</v>
       </c>
       <c r="G6" t="n">
-        <v>640241.2037277918</v>
+        <v>641118.3358615411</v>
       </c>
       <c r="H6" t="n">
-        <v>640241.2037277917</v>
+        <v>641118.3358615411</v>
       </c>
       <c r="I6" t="n">
-        <v>640241.2037277916</v>
+        <v>641118.3358615413</v>
       </c>
       <c r="J6" t="n">
-        <v>463817.9845351984</v>
+        <v>464695.1166689484</v>
       </c>
       <c r="K6" t="n">
-        <v>640241.2037277922</v>
+        <v>641118.3358615412</v>
       </c>
       <c r="L6" t="n">
-        <v>640241.203727792</v>
+        <v>641118.3358615411</v>
       </c>
       <c r="M6" t="n">
-        <v>505440.1884939559</v>
+        <v>506317.320627704</v>
       </c>
       <c r="N6" t="n">
-        <v>640241.2037277918</v>
+        <v>641118.3358615411</v>
       </c>
       <c r="O6" t="n">
-        <v>640241.2037277918</v>
+        <v>641118.3358615411</v>
       </c>
       <c r="P6" t="n">
-        <v>640241.203727792</v>
+        <v>641118.3358615411</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26746,34 +26746,34 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541005</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541006</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541006</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253575</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-3.378322043447375e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>540.9263704990174</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545555</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>540.9263704990176</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545573</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>376.158309755146</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>104.4281152314582</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>71.89960204370426</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>249.1599642490847</v>
+        <v>303.6383668238969</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>140.9809822185504</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>14.59587156758264</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>168.4323246176517</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>321.4685793061306</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-8.078371562165381e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,16 +32472,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927188</v>
@@ -32490,19 +32490,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
         <v>0.2670576580354894</v>
@@ -32548,7 +32548,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
@@ -32557,19 +32557,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710957</v>
@@ -32578,13 +32578,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32642,19 +32642,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336902</v>
@@ -32663,7 +32663,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>410.0098272511722</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.532252314524</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>222.9314639777537</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560245</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>482.1033309642237</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091989</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081121</v>
@@ -36141,10 +36141,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36290,16 +36290,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221098</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091955</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415084</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349123</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.257704956025</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.502597509196</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349123</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875336954</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315253</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
